--- a/src/kraken_files/excel_files/FILUSD.xlsx
+++ b/src/kraken_files/excel_files/FILUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,117 +475,140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.49168</v>
+        <v>3.328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="D2" t="n">
-        <v>58.37256876</v>
+        <v>61.90198176</v>
       </c>
       <c r="E2" t="n">
-        <v>59.67652713</v>
+        <v>62.55127638</v>
       </c>
       <c r="F2" t="n">
-        <v>60.2732924013</v>
+        <v>63.17678914380001</v>
       </c>
       <c r="G2" t="n">
-        <v>3.153508901828306</v>
+        <v>2.017841364014805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4270208</v>
+        <v>6.49168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.78125</v>
+        <v>0.3125</v>
       </c>
       <c r="D3" t="n">
-        <v>55.2916822656</v>
+        <v>59.8761825456</v>
       </c>
       <c r="E3" t="n">
-        <v>57.48410469779999</v>
+        <v>61.2137294628</v>
       </c>
       <c r="F3" t="n">
-        <v>58.05894574477799</v>
+        <v>61.825866757428</v>
       </c>
       <c r="G3" t="n">
-        <v>4.766299910684991</v>
+        <v>3.153508901828306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>19.12615245</v>
+        <v>11.4270208</v>
       </c>
       <c r="C4" t="n">
-        <v>1.953125</v>
+        <v>0.78125</v>
       </c>
       <c r="D4" t="n">
-        <v>50.4854993330875</v>
+        <v>56.715935771136</v>
       </c>
       <c r="E4" t="n">
-        <v>53.98480201544375</v>
+        <v>58.964832616968</v>
       </c>
       <c r="F4" t="n">
-        <v>54.52465003559819</v>
+        <v>59.55448094313768</v>
       </c>
       <c r="G4" t="n">
-        <v>7.407935126357712</v>
+        <v>4.766299910684991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>31.13679782</v>
+        <v>19.12615245</v>
       </c>
       <c r="C5" t="n">
-        <v>4.8828125</v>
+        <v>1.953125</v>
       </c>
       <c r="D5" t="n">
-        <v>42.987853960865</v>
+        <v>51.7859508016915</v>
       </c>
       <c r="E5" t="n">
-        <v>48.48632798815437</v>
+        <v>55.37539170932975</v>
       </c>
       <c r="F5" t="n">
-        <v>48.97119126803592</v>
+        <v>55.92914562642304</v>
       </c>
       <c r="G5" t="n">
-        <v>12.2180758773502</v>
+        <v>7.407935126357701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.13679782</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.8828125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44.0951742519194</v>
+      </c>
+      <c r="E6" t="n">
+        <v>49.73528298062458</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50.23263581043082</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.21807587735019</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>49.8734046</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12.20703125</v>
       </c>
-      <c r="D6" t="n">
-        <v>31.29152717845</v>
-      </c>
-      <c r="E6" t="n">
-        <v>39.88892758330218</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40.28781685913521</v>
-      </c>
-      <c r="G6" t="n">
-        <v>22.33005007975584</v>
+      <c r="D7" t="n">
+        <v>32.097562832482</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.91642290655329</v>
+      </c>
+      <c r="F7" t="n">
+        <v>41.32558713561882</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22.33005007975585</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,21 +645,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OPUFAD-3VUWX-GFFHZY</t>
+          <t>OWPVJY-PJYD4-FKO65H</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.229</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OQHXIZ-IDBGS-5VN53V</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>61.59</v>
+        <v>63.832</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +681,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OINZNZ-XM3QJ-Y7WNWU</t>
+          <t>OHLGAU-Q63PC-F7C3CX</t>
         </is>
       </c>
     </row>
